--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1498.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1498.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23458726684589</v>
+        <v>1.652425050735474</v>
       </c>
       <c r="B1">
-        <v>1.840829382754811</v>
+        <v>3.919591903686523</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.47603702545166</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>0.8201513886451721</v>
       </c>
       <c r="E1">
-        <v>0.9846550944959468</v>
+        <v>0.8434818387031555</v>
       </c>
     </row>
   </sheetData>
